--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_18-13.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_18-13.xlsx
@@ -47,6 +47,9 @@
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -92,6 +95,12 @@
     <t>CLEAREST 14 CAPS</t>
   </si>
   <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>COBAL F 500/200MG 40 TAB</t>
   </si>
   <si>
@@ -137,6 +146,9 @@
     <t>3:1</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -182,6 +194,9 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -201,6 +216,9 @@
   </si>
   <si>
     <t>NEXIUM 20MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
     <t>ONE FE ONE 120 ML SYRUP</t>
@@ -985,17 +1003,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1003,7 +1021,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1011,17 +1029,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1037,17 +1055,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>42.899999999999999</v>
+        <v>42</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
-        <v>0.14999999999999999</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1055,7 +1073,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1063,17 +1081,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>105</v>
+        <v>42.899999999999999</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
-        <v>0.5</v>
+        <v>0.14999999999999999</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1089,17 +1107,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>349</v>
+        <v>105</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1107,7 +1125,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1115,17 +1133,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>0.16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1133,7 +1151,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1141,17 +1159,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>-0.33000000000000002</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1167,17 +1185,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>0.33000000000000002</v>
+        <v>-0.33000000000000002</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1185,7 +1203,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1193,17 +1211,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1219,13 +1237,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
@@ -1245,17 +1263,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1263,7 +1281,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1271,17 +1289,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1289,7 +1307,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1297,17 +1315,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1315,7 +1333,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1323,7 +1341,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1333,7 +1351,7 @@
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1341,7 +1359,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1349,17 +1367,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>139.68000000000001</v>
+        <v>24</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1381,11 +1399,11 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1401,17 +1419,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>26.670000000000002</v>
+        <v>139.68000000000001</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1427,17 +1445,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>0.5</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1445,7 +1463,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1453,17 +1471,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>35</v>
+        <v>26.670000000000002</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1479,17 +1497,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>1.6699999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1497,7 +1515,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1505,17 +1523,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>63.240000000000002</v>
+        <v>35</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1537,11 +1555,11 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1557,17 +1575,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>50.439999999999998</v>
+        <v>80</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.5</v>
+        <v>1.6699999999999999</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1575,7 +1593,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1583,17 +1601,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>0</v>
+        <v>63.240000000000002</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1601,7 +1619,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1609,17 +1627,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1635,17 +1653,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>40.479999999999997</v>
+        <v>50.439999999999998</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1661,17 +1679,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1687,17 +1705,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>0.10000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1705,7 +1723,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1713,17 +1731,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>50</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1731,7 +1749,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1739,13 +1757,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
@@ -1757,7 +1775,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1765,17 +1783,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1791,13 +1809,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
@@ -1817,13 +1835,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
@@ -1843,17 +1861,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1861,7 +1879,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1869,17 +1887,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1887,7 +1905,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1895,17 +1913,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1921,13 +1939,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
@@ -1947,17 +1965,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>65</v>
+        <v>12.5</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1973,17 +1991,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1991,7 +2009,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1999,17 +2017,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>0.5</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2017,7 +2035,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2025,17 +2043,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>23</v>
+        <v>332</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2043,7 +2061,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2051,13 +2069,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
@@ -2069,7 +2087,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2077,17 +2095,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>153.59999999999999</v>
+        <v>65</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2095,7 +2113,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2103,13 +2121,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
@@ -2121,7 +2139,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2129,13 +2147,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
@@ -2161,11 +2179,11 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>169.19999999999999</v>
+        <v>23</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>0.29999999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2181,13 +2199,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
@@ -2207,17 +2225,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>62</v>
+        <v>153.59999999999999</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2233,13 +2251,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>73.319999999999993</v>
+        <v>180</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
@@ -2259,17 +2277,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>45.5</v>
+        <v>20</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2285,17 +2303,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>116</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>1</v>
+        <v>0.29999999999999999</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2303,7 +2321,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2311,17 +2329,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2337,13 +2355,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
@@ -2355,7 +2373,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2363,17 +2381,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>34</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2381,7 +2399,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2389,17 +2407,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>52</v>
+        <v>45.5</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2407,7 +2425,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2415,13 +2433,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
@@ -2433,7 +2451,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2441,17 +2459,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2459,7 +2477,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2467,13 +2485,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
@@ -2485,7 +2503,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2493,17 +2511,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2519,17 +2537,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2537,7 +2555,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2545,17 +2563,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2563,7 +2581,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2571,17 +2589,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2589,7 +2607,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2597,17 +2615,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2615,7 +2633,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2623,51 +2641,181 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="71" ht="25.5" customHeight="1">
-      <c r="K71" s="11">
-        <v>4030.5300000000002</v>
-      </c>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="12">
+    <row r="71" ht="24.75" customHeight="1">
+      <c r="A71" s="6">
+        <v>68</v>
+      </c>
+      <c t="s" r="B71" s="7">
+        <v>100</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c t="s" r="H71" s="8">
         <v>101</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c t="s" r="F72" s="13">
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="9">
+        <v>12</v>
+      </c>
+      <c r="M71" s="9"/>
+      <c r="N71" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="6">
+        <v>69</v>
+      </c>
+      <c t="s" r="B72" s="7">
         <v>102</v>
       </c>
-      <c r="G72" s="13"/>
-      <c r="H72" s="14"/>
-      <c t="s" r="I72" s="15">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c t="s" r="H72" s="8">
+        <v>101</v>
+      </c>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="9">
+        <v>4</v>
+      </c>
+      <c r="M72" s="9"/>
+      <c r="N72" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" ht="25.5" customHeight="1">
+      <c r="A73" s="6">
+        <v>70</v>
+      </c>
+      <c t="s" r="B73" s="7">
         <v>103</v>
       </c>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c t="s" r="H73" s="8">
+        <v>72</v>
+      </c>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="9">
+        <v>40</v>
+      </c>
+      <c r="M73" s="9"/>
+      <c r="N73" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" ht="24.75" customHeight="1">
+      <c r="A74" s="6">
+        <v>71</v>
+      </c>
+      <c t="s" r="B74" s="7">
+        <v>104</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c t="s" r="H74" s="8">
+        <v>105</v>
+      </c>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="9">
+        <v>30</v>
+      </c>
+      <c r="M74" s="9"/>
+      <c r="N74" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" ht="25.5" customHeight="1">
+      <c r="A75" s="6">
+        <v>72</v>
+      </c>
+      <c t="s" r="B75" s="7">
+        <v>106</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c t="s" r="H75" s="8">
+        <v>53</v>
+      </c>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="9">
+        <v>27</v>
+      </c>
+      <c r="M75" s="9"/>
+      <c r="N75" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="K76" s="11">
+        <v>4117.5299999999997</v>
+      </c>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="12">
+        <v>107</v>
+      </c>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c t="s" r="F77" s="13">
+        <v>108</v>
+      </c>
+      <c r="G77" s="13"/>
+      <c r="H77" s="14"/>
+      <c t="s" r="I77" s="15">
+        <v>109</v>
+      </c>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="227">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2876,10 +3024,25 @@
     <mergeCell ref="B70:G70"/>
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="I77:N77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
